--- a/数据格式.xlsx
+++ b/数据格式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11863\Documents\GitHub\Edge-computing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/Documents/GitHub/Edge-computing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456F41AC-0D0C-4E4E-8AFC-E4318DE018F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447D43C-023C-064F-A401-0A652A52D1A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="465" windowWidth="27285" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="2340" windowWidth="27280" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +246,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -263,16 +263,13 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>i</m:t>
                         </m:r>
                         <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="23"/>
-                          </m:rPr>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="dk1"/>
@@ -290,7 +287,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -320,7 +317,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -333,7 +330,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -350,7 +347,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -364,23 +361,11 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> (</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
@@ -388,7 +373,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -402,7 +387,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -415,7 +400,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -443,35 +428,11 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>+1 </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+1 ) </m:t>
                         </m:r>
                       </m:e>
                     </m:nary>
@@ -537,7 +498,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -549,7 +510,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -561,7 +522,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -591,7 +552,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -619,7 +580,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -651,7 +612,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -698,7 +659,7 @@
                                               <a:schemeClr val="dk1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -711,7 +672,7 @@
                                               <a:schemeClr val="dk1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -725,7 +686,7 @@
                                               <a:schemeClr val="dk1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -739,6 +700,85 @@
                             </m:func>
                           </m:den>
                         </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+1 ) </m:t>
+                        </m:r>
                       </m:e>
                     </m:nary>
                     <m:r>
@@ -986,7 +1026,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1010,11 +1050,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>= 1)^</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 1)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
@@ -1026,7 +1066,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑛</a:t>
+                <a:t>^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_i</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
@@ -1034,23 +1098,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜃</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  (</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -1058,11 +1110,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_i</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
@@ -1070,11 +1122,23 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖/𝑛+1 ) 〗− </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛽</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
@@ -1086,7 +1150,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(</a:t>
+                <a:t> ∑_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -1094,7 +1158,103 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖/max⁡(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 ) (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1106,287 +1266,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+1 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>− </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛽</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ∑24_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>i</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>= 1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^𝑛▒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜆</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>max</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>⁡</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜆_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  + γ  𝑛_𝑠/𝑛  </a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖/𝑛+1 ) 〗  + γ  𝑛_𝑠/𝑛  </a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
             </a:p>
@@ -1673,15 +1557,15 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="25.75" style="1"/>
+    <col min="1" max="16384" width="25.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>

--- a/数据格式.xlsx
+++ b/数据格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/Documents/GitHub/Edge-computing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447D43C-023C-064F-A401-0A652A52D1A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6DF188-47C8-A34A-8C60-1836F7E9B9E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="2340" windowWidth="27280" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1620" windowWidth="27280" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>优先级（λ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,36 +174,36 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
                 <a:t>任务数：</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
                 <a:t>n</a:t>
               </a:r>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
                 <a:t>超时任务数：</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
                 <a:t>ns</a:t>
               </a:r>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
                 <a:t>reward</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
                 <a:t>：</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
@@ -446,7 +446,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>− </m:t>
+                      <m:t>+ </m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="1">
@@ -963,36 +963,36 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
                 <a:t>任务数：</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
                 <a:t>n</a:t>
               </a:r>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
                 <a:t>超时任务数：</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
                 <a:t>ns</a:t>
               </a:r>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
                 <a:t>reward</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
                 <a:t>：</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
@@ -1126,7 +1126,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖/𝑛+1 ) 〗− </a:t>
+                <a:t>𝑖/𝑛+1 ) 〗+ </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0">
@@ -1554,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="15"/>
@@ -1588,6 +1588,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据格式.xlsx
+++ b/数据格式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/Documents/GitHub/Edge-computing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11863\Documents\GitHub\Edge-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6DF188-47C8-A34A-8C60-1836F7E9B9E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0982997-09AF-40F5-9759-F15BE708C08C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1620" windowWidth="27280" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,11 +237,10 @@
                       </a:rPr>
                       <m:t> </m:t>
                     </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:chr m:val="∑"/>
+                    <m:f>
+                      <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
@@ -251,50 +250,209 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                            <m:brk m:alnAt="23"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>i</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>= 1</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>i</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>= 1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜃</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:sty m:val="p"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>i</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> (</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+1 ) </m:t>
+                            </m:r>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                             <a:solidFill>
@@ -307,135 +465,8 @@
                           </a:rPr>
                           <m:t>𝑛</m:t>
                         </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝜃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <m:rPr>
-                                <m:sty m:val="p"/>
-                              </m:rPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>i</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> (</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:f>
-                          <m:fPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:num>
-                          <m:den>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                          </m:den>
-                        </m:f>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>+1 ) </m:t>
-                        </m:r>
-                      </m:e>
-                    </m:nary>
+                      </m:den>
+                    </m:f>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                         <a:solidFill>
@@ -460,21 +491,8 @@
                       </a:rPr>
                       <m:t>𝛽</m:t>
                     </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:chr m:val="∑"/>
+                    <m:f>
+                      <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                             <a:solidFill>
@@ -486,50 +504,319 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                            <m:brk m:alnAt="23"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>i</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>= 1</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>i</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>= 1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜆</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:num>
+                              <m:den>
+                                <m:func>
+                                  <m:funcPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:funcPr>
+                                  <m:fName>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:sty m:val="p"/>
+                                      </m:rPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>max</m:t>
+                                    </m:r>
+                                  </m:fName>
+                                  <m:e>
+                                    <m:d>
+                                      <m:dPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:dPr>
+                                      <m:e>
+                                        <m:sSub>
+                                          <m:sSubPr>
+                                            <m:ctrlPr>
+                                              <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="+mn-lt"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                            </m:ctrlPr>
+                                          </m:sSubPr>
+                                          <m:e>
+                                            <m:r>
+                                              <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="+mn-lt"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>𝜆</m:t>
+                                            </m:r>
+                                          </m:e>
+                                          <m:sub>
+                                            <m:r>
+                                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="+mn-lt"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>𝑖</m:t>
+                                            </m:r>
+                                          </m:sub>
+                                        </m:sSub>
+                                      </m:e>
+                                    </m:d>
+                                  </m:e>
+                                </m:func>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+1 ) </m:t>
+                            </m:r>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                             <a:solidFill>
@@ -542,245 +829,8 @@
                           </a:rPr>
                           <m:t>𝑛</m:t>
                         </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:f>
-                          <m:fPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝜆</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:num>
-                          <m:den>
-                            <m:func>
-                              <m:funcPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:funcPr>
-                              <m:fName>
-                                <m:r>
-                                  <m:rPr>
-                                    <m:sty m:val="p"/>
-                                  </m:rPr>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>max</m:t>
-                                </m:r>
-                              </m:fName>
-                              <m:e>
-                                <m:d>
-                                  <m:dPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:dPr>
-                                  <m:e>
-                                    <m:sSub>
-                                      <m:sSubPr>
-                                        <m:ctrlPr>
-                                          <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
-                                            <a:solidFill>
-                                              <a:schemeClr val="dk1"/>
-                                            </a:solidFill>
-                                            <a:effectLst/>
-                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                            <a:cs typeface="+mn-cs"/>
-                                          </a:rPr>
-                                        </m:ctrlPr>
-                                      </m:sSubPr>
-                                      <m:e>
-                                        <m:r>
-                                          <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
-                                            <a:solidFill>
-                                              <a:schemeClr val="dk1"/>
-                                            </a:solidFill>
-                                            <a:effectLst/>
-                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                            <a:cs typeface="+mn-cs"/>
-                                          </a:rPr>
-                                          <m:t>𝜆</m:t>
-                                        </m:r>
-                                      </m:e>
-                                      <m:sub>
-                                        <m:r>
-                                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                            <a:solidFill>
-                                              <a:schemeClr val="dk1"/>
-                                            </a:solidFill>
-                                            <a:effectLst/>
-                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                            <a:cs typeface="+mn-cs"/>
-                                          </a:rPr>
-                                          <m:t>𝑖</m:t>
-                                        </m:r>
-                                      </m:sub>
-                                    </m:sSub>
-                                  </m:e>
-                                </m:d>
-                              </m:e>
-                            </m:func>
-                          </m:den>
-                        </m:f>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:f>
-                          <m:fPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:num>
-                          <m:den>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                          </m:den>
-                        </m:f>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>+1 ) </m:t>
-                        </m:r>
-                      </m:e>
-                    </m:nary>
+                      </m:den>
+                    </m:f>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                         <a:solidFill>
@@ -791,7 +841,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> + </m:t>
+                      <m:t>  + </m:t>
                     </m:r>
                     <m:r>
                       <m:rPr>
@@ -1026,11 +1076,23 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∑_(i</a:t>
+                <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
@@ -1038,239 +1100,311 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖/𝑛+1 ) 〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>)/𝑛+ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛽</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑_(</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖/max⁡(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 ) (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖/𝑛+1 ) 〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>= 1)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>^𝑛▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜃</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_i</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  (</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖/𝑛+1 ) 〗+ </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛽</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ∑_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>i</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>= 1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^𝑛▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜆_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖/max⁡(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜆_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖 ) (</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖/𝑛+1 ) 〗  + γ  𝑛_𝑠/𝑛  </a:t>
+                <a:t>)/𝑛   + γ  𝑛_𝑠/𝑛  </a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
             </a:p>
@@ -1556,16 +1690,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="25.6640625" style="1"/>
+    <col min="1" max="16384" width="25.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1588,32 +1722,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>

--- a/数据格式.xlsx
+++ b/数据格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11863\Documents\GitHub\Edge-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0982997-09AF-40F5-9759-F15BE708C08C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15B0D86-1EDE-4932-AC2C-737B7A52B7BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="5175" windowWidth="23655" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>优先级（λ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,12 +54,71 @@
     <t>优先级影响因子（β）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cpu（C）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io（O）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandwidth（B）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory（M）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.randint(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0,10)</t>
+    </r>
+  </si>
+  <si>
+    <t>θc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>θo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>θb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>θm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +132,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,8 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -121,16 +195,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -147,8 +221,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3952875" y="2505074"/>
-              <a:ext cx="8505825" cy="3152775"/>
+              <a:off x="38100" y="2181223"/>
+              <a:ext cx="16125824" cy="13144501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -196,14 +270,70 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>服务器参数：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-                <a:t>reward</a:t>
+                <a:t>CPU</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
                 <a:t>：</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Cs</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>IO</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Os</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>BandWidth</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Bs</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Memory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Ms</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
@@ -213,18 +343,49 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝛼</m:t>
-                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                         <a:solidFill>
@@ -235,7 +396,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> </m:t>
+                      <m:t>= </m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -261,7 +422,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -278,7 +439,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -290,7 +451,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -302,7 +463,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -316,7 +477,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -332,7 +493,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -340,16 +501,16 @@
                               </m:sSubPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝜃</m:t>
+                                  <m:t>𝐶</m:t>
                                 </m:r>
                               </m:e>
                               <m:sub>
@@ -362,7 +523,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -370,85 +531,6 @@
                                 </m:r>
                               </m:sub>
                             </m:sSub>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> (</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:f>
-                              <m:fPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:fPr>
-                              <m:num>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:num>
-                              <m:den>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑛</m:t>
-                                </m:r>
-                              </m:den>
-                            </m:f>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>+1 ) </m:t>
-                            </m:r>
                           </m:e>
                         </m:nary>
                       </m:num>
@@ -477,10 +559,98 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>+ </m:t>
+                      <m:t> </m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="1">
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>×10</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑂</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                         <a:solidFill>
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
@@ -489,7 +659,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝛽</m:t>
+                      <m:t>= </m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -510,12 +680,12 @@
                           <m:naryPr>
                             <m:chr m:val="∑"/>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -532,7 +702,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -544,7 +714,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -556,7 +726,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -570,7 +740,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -578,241 +748,52 @@
                             </m:r>
                           </m:sup>
                           <m:e>
-                            <m:f>
-                              <m:fPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:fPr>
-                              <m:num>
-                                <m:sSub>
-                                  <m:sSubPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:sSubPr>
-                                  <m:e>
-                                    <m:r>
-                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝜆</m:t>
-                                    </m:r>
-                                  </m:e>
-                                  <m:sub>
-                                    <m:r>
-                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑖</m:t>
-                                    </m:r>
-                                  </m:sub>
-                                </m:sSub>
-                              </m:num>
-                              <m:den>
-                                <m:func>
-                                  <m:funcPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:funcPr>
-                                  <m:fName>
-                                    <m:r>
-                                      <m:rPr>
-                                        <m:sty m:val="p"/>
-                                      </m:rPr>
-                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>max</m:t>
-                                    </m:r>
-                                  </m:fName>
-                                  <m:e>
-                                    <m:d>
-                                      <m:dPr>
-                                        <m:ctrlPr>
-                                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                            <a:solidFill>
-                                              <a:schemeClr val="dk1"/>
-                                            </a:solidFill>
-                                            <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                            <a:cs typeface="+mn-cs"/>
-                                          </a:rPr>
-                                        </m:ctrlPr>
-                                      </m:dPr>
-                                      <m:e>
-                                        <m:sSub>
-                                          <m:sSubPr>
-                                            <m:ctrlPr>
-                                              <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="dk1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                            </m:ctrlPr>
-                                          </m:sSubPr>
-                                          <m:e>
-                                            <m:r>
-                                              <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="1">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="dk1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                              <m:t>𝜆</m:t>
-                                            </m:r>
-                                          </m:e>
-                                          <m:sub>
-                                            <m:r>
-                                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="dk1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                              <m:t>𝑖</m:t>
-                                            </m:r>
-                                          </m:sub>
-                                        </m:sSub>
-                                      </m:e>
-                                    </m:d>
-                                  </m:e>
-                                </m:func>
-                              </m:den>
-                            </m:f>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:f>
-                              <m:fPr>
+                            <m:sSub>
+                              <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
                                 </m:ctrlPr>
-                              </m:fPr>
-                              <m:num>
+                              </m:sSubPr>
+                              <m:e>
                                 <m:r>
                                   <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝑖</m:t>
+                                  <m:t>𝑂</m:t>
                                 </m:r>
-                              </m:num>
-                              <m:den>
+                              </m:e>
+                              <m:sub>
                                 <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                  <m:rPr>
+                                    <m:sty m:val="p"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝑛</m:t>
+                                  <m:t>i</m:t>
                                 </m:r>
-                              </m:den>
-                            </m:f>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>+1 ) </m:t>
-                            </m:r>
+                              </m:sub>
+                            </m:sSub>
                           </m:e>
                         </m:nary>
                       </m:num>
@@ -841,23 +822,88 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>  + </m:t>
+                      <m:t> ×10</m:t>
                     </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:sty m:val="p"/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>γ</m:t>
-                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                         <a:solidFill>
@@ -868,7 +914,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> </m:t>
+                      <m:t>= </m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -885,6 +931,555 @@
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>i</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>= 1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐵</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:sty m:val="p"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>i</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ×10</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>i</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>= 1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑀</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:sty m:val="p"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>i</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ×10</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>归一化：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>/</m:t>
+                        </m:r>
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
@@ -910,7 +1505,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑛</m:t>
+                              <m:t>𝐶</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -930,6 +1525,49 @@
                         </m:sSub>
                       </m:num>
                       <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                             <a:solidFill>
@@ -940,10 +1578,65 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑛</m:t>
+                          <m:t> </m:t>
                         </m:r>
                       </m:den>
                     </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                         <a:solidFill>
@@ -954,12 +1647,2123 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> </m:t>
+                      <m:t>= </m:t>
                     </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑂</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>/</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑂</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑂</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>/</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>/</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑀</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑀</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                <a:t>	</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>reward</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑤𝑎𝑟𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝛼</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> = 1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑐</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜃</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑐</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑜</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜃</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑜</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑏</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜃</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑏</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑚</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜃</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑚</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+1 </m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑤𝑎𝑟𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝛽</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> = 1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜆</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:func>
+                              <m:funcPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:funcPr>
+                              <m:fName>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:sty m:val="p"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>max</m:t>
+                                </m:r>
+                              </m:fName>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="dk1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜆</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                            </m:func>
+                          </m:den>
+                        </m:f>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+1 </m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑤𝑎𝑟𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝛾</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑤𝑎𝑟𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑤𝑎𝑟𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑤𝑎𝑟𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑤𝑎𝑟𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
@@ -986,8 +3790,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3952875" y="2505074"/>
-              <a:ext cx="8505825" cy="3152775"/>
+              <a:off x="38100" y="2181223"/>
+              <a:ext cx="16125824" cy="13144501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1035,19 +3839,823 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-                <a:t>reward</a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-                <a:t>：</a:t>
+                <a:t>服务器参数：</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="0">
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>CPU</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Cs</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>IO</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Os</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>BandWidth</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Bs</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Memory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                <a:t>Ms</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶_𝑠= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(∑_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒𝐶_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/𝑛  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>×10</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑂_𝑠= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(∑_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒𝑂_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/𝑛  ×10</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵_𝑠= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(∑_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒𝐵_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/𝑛  ×10</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀_𝑠= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(∑_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒𝑀_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/𝑛  ×10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>归一化：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑐=  (𝐶/𝐶_𝑠)/(𝐶_𝑠  )   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑜=  (𝑂/𝑂_𝑠)/(𝑂_𝑠  )   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑏=  (𝐵/𝐵_𝑠)/(𝐵_𝑠  )   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑚=  (𝑀/𝑀_𝑠)/(𝑀_𝑠  )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                <a:t>	</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>reward</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑤𝑎𝑟𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -1059,6 +4667,594 @@
                 <a:t>𝛼</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 = 1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖+𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖+𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖+𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 )  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛+1 ) 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑤𝑎𝑟𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2=𝛽</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
@@ -1068,67 +5264,319 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t> 1/𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 = 1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>max</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⁡(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜆) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛+1 ) 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑤𝑎𝑟𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3=𝛾 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑_(</a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>i</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -1136,35 +5584,23 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>= 1)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>^𝑛▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜃</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -1172,107 +5608,47 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_i</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  (</a:t>
-              </a:r>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖/𝑛+1 ) 〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/𝑛+ </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛽</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑_(</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑤𝑎𝑟𝑑=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -1280,23 +5656,23 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>i</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑤𝑎𝑟𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -1304,71 +5680,23 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>= 1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^𝑛▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜆_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖/max⁡(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜆_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖 ) (</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -1376,37 +5704,93 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖/𝑛+1 ) 〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/𝑛   + γ  𝑛_𝑠/𝑛  </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑤𝑎𝑟𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑤𝑎𝑟𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
@@ -1688,10 +6072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1752,7 +6136,69 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/数据格式.xlsx
+++ b/数据格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11863\Documents\GitHub\Edge-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15B0D86-1EDE-4932-AC2C-737B7A52B7BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC13405-99F6-4C31-AB12-BB82A97343BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="5175" windowWidth="23655" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23730" yWindow="-3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>优先级（λ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>服务器利用率（θ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用率影响因子（α）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时影响因子（γ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级影响因子（β）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,6 +99,10 @@
   </si>
   <si>
     <t>归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α 资源影响因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +563,7 @@
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>×10</m:t>
+                      <m:t>×2</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -822,7 +814,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> ×10</m:t>
+                      <m:t> ×2</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -1077,7 +1069,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> ×10</m:t>
+                      <m:t> ×2</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -1315,7 +1307,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> ×10</m:t>
+                      <m:t> ×2</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -1468,61 +1460,6 @@
                           </a:rPr>
                           <m:t>𝐶</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>/</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐶</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑠</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
                       </m:num>
                       <m:den>
                         <m:sSub>
@@ -1676,61 +1613,6 @@
                           </a:rPr>
                           <m:t>𝑂</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>/</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑂</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑠</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
                       </m:num>
                       <m:den>
                         <m:sSub>
@@ -1884,61 +1766,6 @@
                           </a:rPr>
                           <m:t>𝐵</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>/</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐵</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑠</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
                       </m:num>
                       <m:den>
                         <m:sSub>
@@ -2092,61 +1919,6 @@
                           </a:rPr>
                           <m:t>𝑀</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>/</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑀</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑠</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
                       </m:num>
                       <m:den>
                         <m:sSub>
@@ -2295,8 +2067,51 @@
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
                     <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                         <a:solidFill>
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
@@ -2305,7 +2120,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝛼</m:t>
+                      <m:t>𝑛</m:t>
                     </m:r>
                     <m:nary>
                       <m:naryPr>
@@ -2363,6 +2178,49 @@
                         </m:r>
                       </m:sup>
                       <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝛼</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
                         <m:d>
                           <m:dPr>
                             <m:ctrlPr>
@@ -2378,49 +2236,6 @@
                             </m:ctrlPr>
                           </m:dPr>
                           <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝛼</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑐</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
                             <m:sSub>
                               <m:sSubPr>
                                 <m:ctrlPr>
@@ -2522,49 +2337,6 @@
                                 </m:ctrlPr>
                               </m:sSubPr>
                               <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝛼</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑜</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
                                 <m:sSub>
                                   <m:sSubPr>
                                     <m:ctrlPr>
@@ -2636,49 +2408,6 @@
                               </a:rPr>
                               <m:t>+</m:t>
                             </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝛼</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑏</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
                             <m:sSub>
                               <m:sSubPr>
                                 <m:ctrlPr>
@@ -2808,80 +2537,6 @@
                                 </m:r>
                               </m:sub>
                             </m:sSub>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:sSub>
-                                  <m:sSubPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:sSubPr>
-                                  <m:e>
-                                    <m:r>
-                                      <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝜃</m:t>
-                                    </m:r>
-                                  </m:e>
-                                  <m:sub>
-                                    <m:r>
-                                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑚</m:t>
-                                    </m:r>
-                                  </m:sub>
-                                </m:sSub>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
                           </m:e>
                         </m:d>
                         <m:r>
@@ -3059,7 +2714,7 @@
                       <m:t>=</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="1">
                         <a:solidFill>
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
@@ -3068,51 +2723,20 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝛽</m:t>
+                      <m:t>𝛼</m:t>
                     </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑛</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑛</m:t>
+                    </m:r>
                     <m:nary>
                       <m:naryPr>
                         <m:chr m:val="∑"/>
@@ -3456,30 +3080,6 @@
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝛾</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
@@ -4024,7 +3624,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>×10</a:t>
+                <a:t>×2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
             </a:p>
@@ -4156,7 +3756,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)/𝑛  ×10</a:t>
+                <a:t>)/𝑛  ×2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
                 <a:effectLst/>
@@ -4292,7 +3892,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)/𝑛  ×10</a:t>
+                <a:t>)/𝑛  ×2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
                 <a:effectLst/>
@@ -4411,7 +4011,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)/𝑛  ×10</a:t>
+                <a:t>)/𝑛  ×2</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
                 <a:effectLst/>
@@ -4495,7 +4095,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>_𝑐=  (𝐶/𝐶_𝑠)/(𝐶_𝑠  )   </a:t>
+                <a:t>_𝑐=  𝐶/(𝐶_𝑠  )   </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
@@ -4519,7 +4119,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>_𝑜=  (𝑂/𝑂_𝑠)/(𝑂_𝑠  )   </a:t>
+                <a:t>_𝑜=  𝑂/(𝑂_𝑠  )   </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
@@ -4543,7 +4143,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>_𝑏=  (𝐵/𝐵_𝑠)/(𝐵_𝑠  )   </a:t>
+                <a:t>_𝑏=  𝐵/(𝐵_𝑠  )   </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
@@ -4567,7 +4167,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>_𝑚=  (𝑀/𝑀_𝑠)/(𝑀_𝑠  )</a:t>
+                <a:t>_𝑚=  𝑀/(𝑀_𝑠  )</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
             </a:p>
@@ -4655,6 +4255,42 @@
                 <a:t>=</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^2 𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
@@ -4664,6 +4300,66 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 = 1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒〖1/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>𝛼</a:t>
               </a:r>
               <a:r>
@@ -4676,7 +4372,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∑</a:t>
+                <a:t> (〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -4688,9 +4408,81 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>_</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑜</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
@@ -4700,7 +4492,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(</a:t>
+                <a:t>〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -4712,7 +4504,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖 = 1</a:t>
+                <a:t>𝑖+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
@@ -4724,7 +4516,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)</a:t>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -4736,7 +4552,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>^𝑛▒〖</a:t>
+                <a:t>𝑏</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
@@ -4748,7 +4564,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(</a:t>
+                <a:t>〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -4760,7 +4576,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝛼</a:t>
+                <a:t>𝑖+𝛼</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
@@ -4784,367 +4600,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑐</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜃</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑐</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖+𝛼</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑜</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜃</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑜</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖+𝛼</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑏</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜃</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑏</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖+𝛼</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑚</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜃</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑚</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖 )  </a:t>
+                <a:t>𝑚 )  </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
@@ -5252,7 +4708,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2=𝛽</a:t>
+                <a:t>2=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
@@ -5264,19 +4732,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 1/𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t>𝑛</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
@@ -5540,31 +4996,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>3=𝛾 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
+                <a:t>3=𝑛</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
@@ -6074,8 +5506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6096,14 +5528,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6121,33 +5547,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -6161,35 +5572,35 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>

--- a/数据格式.xlsx
+++ b/数据格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11863\Documents\GitHub\Edge-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC13405-99F6-4C31-AB12-BB82A97343BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0DD23-E5A4-4DFD-A058-0D539B406AF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23730" yWindow="-3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>优先级（λ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,16 +187,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180973</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -213,7 +213,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="38100" y="2181223"/>
+              <a:off x="2152650" y="2533648"/>
               <a:ext cx="16125824" cy="13144501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -575,7 +575,7 @@
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
                 </a:lnSpc>
@@ -824,7 +824,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
                 </a:lnSpc>
@@ -846,7 +846,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1079,12 +1079,13 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr algn="l"/>
               <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+              <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1317,7 +1318,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
                 </a:lnSpc>
@@ -1359,7 +1360,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
@@ -1371,7 +1372,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1984,13 +1985,14 @@
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
             </a:p>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
                 <a:t>	</a:t>
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                   <a:solidFill>
@@ -2005,7 +2007,7 @@
               </a:r>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2067,8 +2069,8 @@
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
+                    <m:f>
+                      <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                             <a:solidFill>
@@ -2080,22 +2082,8 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝛼</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
+                      </m:fPr>
+                      <m:num>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                             <a:solidFill>
@@ -2106,22 +2094,24 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>2</m:t>
+                          <m:t>1</m:t>
                         </m:r>
-                      </m:sup>
-                    </m:sSup>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑛</m:t>
-                    </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
                     <m:nary>
                       <m:naryPr>
                         <m:chr m:val="∑"/>
@@ -2651,7 +2641,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2713,30 +2703,61 @@
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
-                    <m:r>
-                      <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝛼</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑛</m:t>
-                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
                     <m:nary>
                       <m:naryPr>
                         <m:chr m:val="∑"/>
@@ -3018,7 +3039,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3168,7 +3189,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3390,7 +3411,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="38100" y="2181223"/>
+              <a:off x="2152650" y="2533648"/>
               <a:ext cx="16125824" cy="13144501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3633,7 +3654,7 @@
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
                 </a:lnSpc>
@@ -3763,7 +3784,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
                 </a:lnSpc>
@@ -3785,7 +3806,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
                   <a:solidFill>
@@ -3899,12 +3920,13 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr algn="l"/>
               <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+              <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
                   <a:solidFill>
@@ -4018,7 +4040,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
                 </a:lnSpc>
@@ -4060,7 +4082,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
@@ -4072,7 +4094,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="el-GR" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
@@ -4172,13 +4194,14 @@
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
             </a:p>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
                 <a:t>	</a:t>
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                   <a:solidFill>
@@ -4193,7 +4216,7 @@
               </a:r>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
@@ -4252,31 +4275,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛼</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>^2 𝑛</a:t>
+                <a:t>=1/𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
@@ -4661,7 +4672,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
@@ -4711,6 +4722,18 @@
                 <a:t>2=</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
@@ -4733,6 +4756,18 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
@@ -4949,7 +4984,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
@@ -5057,7 +5092,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
@@ -5506,9 +5541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5530,21 +5563,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">

--- a/数据格式.xlsx
+++ b/数据格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11863\Documents\GitHub\Edge-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0DD23-E5A4-4DFD-A058-0D539B406AF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E3C37D-C3CF-44DE-8E24-DD4431FEA304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>优先级（λ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,9 @@
   <si>
     <t>α 资源影响因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级（λ）</t>
   </si>
 </sst>
 </file>
@@ -198,8 +201,8 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="矩形 1">
@@ -3397,7 +3400,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="矩形 1">
@@ -5541,7 +5544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5579,7 +5584,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>

--- a/数据格式.xlsx
+++ b/数据格式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11863\Documents\GitHub\Edge-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E3C37D-C3CF-44DE-8E24-DD4431FEA304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E304994-D25F-473E-B07F-53398922787A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40335" yWindow="6135" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,8 +201,8 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="矩形 1">
@@ -2722,7 +2722,7 @@
                       </m:fPr>
                       <m:num>
                         <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                             <a:solidFill>
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
@@ -2748,7 +2748,7 @@
                           <m:t>𝛼</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                             <a:solidFill>
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
@@ -2896,7 +2896,7 @@
                                   <m:rPr>
                                     <m:sty m:val="p"/>
                                   </m:rPr>
-                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
@@ -2967,12 +2967,12 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>−</m:t>
+                              <m:t>1− </m:t>
                             </m:r>
                             <m:f>
                               <m:fPr>
                                 <m:ctrlPr>
-                                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
@@ -3012,18 +3012,6 @@
                                 </m:r>
                               </m:den>
                             </m:f>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>+1 </m:t>
-                            </m:r>
                           </m:e>
                         </m:d>
                       </m:e>
@@ -3031,12 +3019,12 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:endParaRPr>
@@ -3149,7 +3137,7 @@
                           </m:e>
                           <m:sub>
                             <m:r>
-                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="1">
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
@@ -3158,7 +3146,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑠</m:t>
+                              <m:t>𝑜𝑢𝑡</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -3400,7 +3388,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="矩形 1">
@@ -4722,19 +4710,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1/</a:t>
+                <a:t>2=1/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="0">
@@ -4749,7 +4725,7 @@
                 <a:t>𝛼</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -4761,18 +4737,6 @@
                 <a:t>𝑛</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
@@ -4782,7 +4746,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∑</a:t>
+                <a:t> ∑</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
@@ -4950,10 +4914,10 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>−𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                <a:t>1− 𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -4974,14 +4938,14 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑛+1 ) 〗</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+                <a:t>𝑛) 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000" i="1">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:endParaRPr>
@@ -5049,19 +5013,19 @@
                 <a:t>_</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑠</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" i="0">
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑜𝑢𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -5544,7 +5508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
